--- a/biology/Histoire de la zoologie et de la botanique/Anthony_G._Miller/Anthony_G._Miller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anthony_G._Miller/Anthony_G._Miller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthony G. Miller, né en 1951, est un botaniste britannique.
 Il a travaillé au Jardin botanique royal d'Edimbourg. Il a décrit pour la première fois et nommé environ 100 espèces de plantes.
@@ -512,7 +524,9 @@
           <t>Plantes nommées en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les espèces suivantes ont été nommées en son honneur:
 (Araceae) Philodendron milleri Croat
@@ -544,7 +558,9 @@
           <t>Ouvrages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A.G. Miller, T.A. Cope, J.A. Nyberg, Flora of the Arabian Peninsula and Socotra, volume 1, Edinburgh University Press, 1996, 586 pages.,  (ISBN 0-7486-0475-8).
 A.G. Miller, M. Morris, S. Stuart-Smith, Plants of Dhofar, the southern region of Oman: traditional, economic, and medicinal uses, Ed. Diwan of Royal Court, Sultanato dell'Oman, 1988, 361 pagg.,  (ISBN 0-7157-0808-2).
